--- a/arena.xlsx
+++ b/arena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c258af6f82bae6e/Ortak/Belgeler/GitHub/emu-hacettepe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="730" documentId="8_{E874EB0A-1B3E-4D18-BA57-C28D5CAE2331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31CD1A03-6F0C-4557-B748-AD29CA7F139D}"/>
+  <xr:revisionPtr revIDLastSave="733" documentId="8_{E874EB0A-1B3E-4D18-BA57-C28D5CAE2331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D843E2F2-AEAE-42C4-A4B7-A589AFE7FF63}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{B1CC244A-9413-4E16-9851-F17A9FD4386F}"/>
   </bookViews>
@@ -268,13 +268,13 @@
     <t>places</t>
   </si>
   <si>
-    <t>Katma Değer Zaman</t>
+    <t>Toplam Süre</t>
   </si>
   <si>
-    <t>Bekleme Zamanı</t>
+    <t>Katma Değer Süre</t>
   </si>
   <si>
-    <t>Toplam Zaman</t>
+    <t>Bekleme Süresi</t>
   </si>
 </sst>
 </file>
@@ -14041,6 +14041,1202 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5D689A0A-5D80-4286-B837-064E3CA4F1B7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A19:D35" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
+  <pivotFields count="25">
+    <pivotField name="Project Name" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0">
+      <items count="146">
+        <item m="1" x="47"/>
+        <item m="1" x="142"/>
+        <item m="1" x="68"/>
+        <item m="1" x="54"/>
+        <item m="1" x="143"/>
+        <item m="1" x="134"/>
+        <item m="1" x="129"/>
+        <item m="1" x="121"/>
+        <item m="1" x="108"/>
+        <item m="1" x="72"/>
+        <item m="1" x="86"/>
+        <item m="1" x="96"/>
+        <item m="1" x="56"/>
+        <item m="1" x="93"/>
+        <item m="1" x="53"/>
+        <item m="1" x="87"/>
+        <item m="1" x="133"/>
+        <item m="1" x="61"/>
+        <item m="1" x="104"/>
+        <item m="1" x="119"/>
+        <item m="1" x="94"/>
+        <item m="1" x="103"/>
+        <item m="1" x="141"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item m="1" x="67"/>
+        <item m="1" x="85"/>
+        <item m="1" x="115"/>
+        <item m="1" x="132"/>
+        <item m="1" x="52"/>
+        <item m="1" x="139"/>
+        <item m="1" x="145"/>
+        <item m="1" x="69"/>
+        <item m="1" x="79"/>
+        <item m="1" x="51"/>
+        <item m="1" x="127"/>
+        <item m="1" x="90"/>
+        <item m="1" x="117"/>
+        <item m="1" x="130"/>
+        <item m="1" x="137"/>
+        <item m="1" x="102"/>
+        <item m="1" x="74"/>
+        <item m="1" x="65"/>
+        <item m="1" x="60"/>
+        <item m="1" x="89"/>
+        <item m="1" x="76"/>
+        <item m="1" x="95"/>
+        <item m="1" x="116"/>
+        <item m="1" x="136"/>
+        <item m="1" x="80"/>
+        <item m="1" x="122"/>
+        <item m="1" x="110"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item m="1" x="128"/>
+        <item m="1" x="113"/>
+        <item m="1" x="120"/>
+        <item m="1" x="99"/>
+        <item m="1" x="112"/>
+        <item m="1" x="92"/>
+        <item m="1" x="107"/>
+        <item m="1" x="84"/>
+        <item m="1" x="98"/>
+        <item m="1" x="78"/>
+        <item m="1" x="91"/>
+        <item m="1" x="70"/>
+        <item m="1" x="83"/>
+        <item m="1" x="66"/>
+        <item m="1" x="105"/>
+        <item m="1" x="75"/>
+        <item m="1" x="135"/>
+        <item m="1" x="123"/>
+        <item m="1" x="48"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item m="1" x="64"/>
+        <item m="1" x="71"/>
+        <item m="1" x="62"/>
+        <item m="1" x="49"/>
+        <item m="1" x="131"/>
+        <item m="1" x="125"/>
+        <item m="1" x="114"/>
+        <item m="1" x="100"/>
+        <item m="1" x="63"/>
+        <item m="1" x="109"/>
+        <item m="1" x="140"/>
+        <item m="1" x="81"/>
+        <item m="1" x="126"/>
+        <item m="1" x="106"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item m="1" x="144"/>
+        <item m="1" x="57"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item m="1" x="55"/>
+        <item m="1" x="77"/>
+        <item m="1" x="73"/>
+        <item m="1" x="138"/>
+        <item m="1" x="50"/>
+        <item m="1" x="118"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item m="1" x="59"/>
+        <item m="1" x="101"/>
+        <item m="1" x="111"/>
+        <item m="1" x="82"/>
+        <item m="1" x="58"/>
+        <item m="1" x="88"/>
+        <item m="1" x="124"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="97"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="12">
+        <item m="1" x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="10"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item x="0"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="3"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="3"/>
+    <field x="4"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x v="116"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="113"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="144"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="130"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="79"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="25"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="128"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="121"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="83"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="26"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="89"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="56"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="92"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="86"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="78"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="141"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Average" fld="6" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="24">
+    <format dxfId="49">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="45">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="16">
+            <x v="25"/>
+            <x v="26"/>
+            <x v="56"/>
+            <x v="78"/>
+            <x v="79"/>
+            <x v="83"/>
+            <x v="86"/>
+            <x v="89"/>
+            <x v="92"/>
+            <x v="113"/>
+            <x v="116"/>
+            <x v="121"/>
+            <x v="128"/>
+            <x v="130"/>
+            <x v="141"/>
+            <x v="144"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="116"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="116"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="113"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="144"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="130"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="79"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="25"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="128"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="121"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="83"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="26"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="89"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="56"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="92"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="86"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="78"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="141"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="3" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThan" val="0"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C60B51EB-8837-4193-A6A8-17E5FAE31CEA}" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="K19:N35" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
+  <pivotFields count="25">
+    <pivotField name="Project Name" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0">
+      <items count="146">
+        <item m="1" x="57"/>
+        <item m="1" x="80"/>
+        <item m="1" x="52"/>
+        <item m="1" x="132"/>
+        <item m="1" x="115"/>
+        <item m="1" x="85"/>
+        <item m="1" x="141"/>
+        <item m="1" x="73"/>
+        <item m="1" x="77"/>
+        <item m="1" x="144"/>
+        <item m="1" x="110"/>
+        <item m="1" x="122"/>
+        <item m="1" x="127"/>
+        <item m="1" x="51"/>
+        <item m="1" x="79"/>
+        <item m="1" x="69"/>
+        <item m="1" x="145"/>
+        <item m="1" x="139"/>
+        <item m="1" x="67"/>
+        <item m="1" x="61"/>
+        <item m="1" x="133"/>
+        <item m="1" x="53"/>
+        <item m="1" x="86"/>
+        <item m="1" x="72"/>
+        <item m="1" x="97"/>
+        <item m="1" x="124"/>
+        <item m="1" x="88"/>
+        <item m="1" x="58"/>
+        <item m="1" x="82"/>
+        <item m="1" x="111"/>
+        <item m="1" x="101"/>
+        <item m="1" x="59"/>
+        <item m="1" x="118"/>
+        <item m="1" x="50"/>
+        <item m="1" x="138"/>
+        <item m="1" x="106"/>
+        <item m="1" x="126"/>
+        <item m="1" x="81"/>
+        <item m="1" x="140"/>
+        <item m="1" x="109"/>
+        <item m="1" x="63"/>
+        <item m="1" x="100"/>
+        <item m="1" x="114"/>
+        <item m="1" x="125"/>
+        <item m="1" x="131"/>
+        <item m="1" x="49"/>
+        <item m="1" x="62"/>
+        <item m="1" x="71"/>
+        <item m="1" x="64"/>
+        <item m="1" x="48"/>
+        <item m="1" x="123"/>
+        <item m="1" x="135"/>
+        <item m="1" x="75"/>
+        <item m="1" x="105"/>
+        <item m="1" x="66"/>
+        <item m="1" x="83"/>
+        <item m="1" x="70"/>
+        <item m="1" x="91"/>
+        <item m="1" x="78"/>
+        <item m="1" x="98"/>
+        <item m="1" x="84"/>
+        <item m="1" x="107"/>
+        <item m="1" x="92"/>
+        <item m="1" x="112"/>
+        <item m="1" x="99"/>
+        <item m="1" x="120"/>
+        <item m="1" x="113"/>
+        <item m="1" x="128"/>
+        <item m="1" x="136"/>
+        <item m="1" x="116"/>
+        <item m="1" x="95"/>
+        <item m="1" x="76"/>
+        <item m="1" x="89"/>
+        <item m="1" x="60"/>
+        <item m="1" x="65"/>
+        <item m="1" x="74"/>
+        <item m="1" x="102"/>
+        <item m="1" x="137"/>
+        <item m="1" x="130"/>
+        <item m="1" x="117"/>
+        <item m="1" x="90"/>
+        <item m="1" x="103"/>
+        <item m="1" x="94"/>
+        <item m="1" x="119"/>
+        <item m="1" x="104"/>
+        <item m="1" x="87"/>
+        <item m="1" x="93"/>
+        <item m="1" x="56"/>
+        <item m="1" x="96"/>
+        <item m="1" x="108"/>
+        <item m="1" x="121"/>
+        <item m="1" x="129"/>
+        <item m="1" x="134"/>
+        <item m="1" x="143"/>
+        <item m="1" x="54"/>
+        <item m="1" x="68"/>
+        <item m="1" x="142"/>
+        <item m="1" x="55"/>
+        <item m="1" x="47"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="12">
+        <item m="1" x="11"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="10"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item x="0"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="3"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="3"/>
+    <field x="4"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x v="112"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="115"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="106"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="135"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="99"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="143"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="108"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="109"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="136"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="131"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="102"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="139"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="142"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="128"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="122"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="125"/>
+      <x v="7"/>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Average" fld="13" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="24">
+    <format dxfId="73">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="72">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="71">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="70">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="69">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="68">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="16">
+            <x v="99"/>
+            <x v="102"/>
+            <x v="106"/>
+            <x v="108"/>
+            <x v="109"/>
+            <x v="112"/>
+            <x v="115"/>
+            <x v="122"/>
+            <x v="125"/>
+            <x v="128"/>
+            <x v="131"/>
+            <x v="135"/>
+            <x v="136"/>
+            <x v="139"/>
+            <x v="142"/>
+            <x v="143"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="67">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="112"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="112"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="115"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="106"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="135"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="99"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="143"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="108"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="109"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="136"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="131"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="102"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="55">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="139"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="142"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="53">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="128"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="122"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="125"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="3" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThan" val="0"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9997D82F-A922-4C66-A1A3-E93694B860A7}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K2:N17" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="25">
@@ -14338,7 +15534,7 @@
     <dataField name="Sum of Average" fld="13" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="26">
+    <format dxfId="74">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -14354,7 +15550,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F03BCD73-E33B-4965-A720-F840E653D0F4}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="F19:I35" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="25">
@@ -14666,22 +15862,22 @@
     <dataField name="Sum of Average" fld="6" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="24">
-    <format dxfId="50">
+    <format dxfId="98">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="97">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="96">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="95">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="94">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="16">
@@ -14705,7 +15901,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="92">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -14717,7 +15913,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="91">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14730,7 +15926,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14743,7 +15939,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14756,7 +15952,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14769,7 +15965,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14782,7 +15978,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14795,7 +15991,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14808,7 +16004,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14821,7 +16017,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14834,7 +16030,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14847,7 +16043,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14860,7 +16056,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14873,7 +16069,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14886,7 +16082,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14899,7 +16095,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14912,7 +16108,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14925,7 +16121,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -14952,7 +16148,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0853104-5868-4EEA-827D-C91C7FF3FA94}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="F2:I17" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="25">
@@ -15250,22 +16446,22 @@
     <dataField name="Sum of Average" fld="13" subtotal="max" baseField="5" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="23">
-    <format dxfId="73">
+    <format dxfId="121">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="120">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="119">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="118">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="117">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -15288,7 +16484,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -15298,7 +16494,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15311,7 +16507,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15324,7 +16520,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15337,7 +16533,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15350,7 +16546,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15363,7 +16559,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15376,7 +16572,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15389,7 +16585,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15402,7 +16598,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="106">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15415,7 +16611,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15428,7 +16624,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="104">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15441,7 +16637,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15454,7 +16650,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15467,7 +16663,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="101">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15480,7 +16676,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15493,7 +16689,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="99">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -15509,7 +16705,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DD882CE-92FD-4787-B40D-E4A49A047CA1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A2:D17" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="25">
@@ -15816,22 +17012,22 @@
     <dataField name="Sum of Average" fld="6" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="23">
-    <format dxfId="96">
+    <format dxfId="144">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="143">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="142">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="141">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="140">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="139">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -15854,7 +17050,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -15864,7 +17060,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="137">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15875,7 +17071,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="136">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15886,7 +17082,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="135">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15897,7 +17093,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15908,7 +17104,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15919,7 +17115,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15930,7 +17126,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15941,7 +17137,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="130">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15952,7 +17148,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="129">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15963,7 +17159,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="128">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15974,7 +17170,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="127">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15985,7 +17181,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="126">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15996,7 +17192,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -16007,7 +17203,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -16018,7 +17214,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -16029,1207 +17225,11 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5D689A0A-5D80-4286-B837-064E3CA4F1B7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A19:D35" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
-  <pivotFields count="25">
-    <pivotField name="Project Name" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0">
-      <items count="146">
-        <item m="1" x="47"/>
-        <item m="1" x="142"/>
-        <item m="1" x="68"/>
-        <item m="1" x="54"/>
-        <item m="1" x="143"/>
-        <item m="1" x="134"/>
-        <item m="1" x="129"/>
-        <item m="1" x="121"/>
-        <item m="1" x="108"/>
-        <item m="1" x="72"/>
-        <item m="1" x="86"/>
-        <item m="1" x="96"/>
-        <item m="1" x="56"/>
-        <item m="1" x="93"/>
-        <item m="1" x="53"/>
-        <item m="1" x="87"/>
-        <item m="1" x="133"/>
-        <item m="1" x="61"/>
-        <item m="1" x="104"/>
-        <item m="1" x="119"/>
-        <item m="1" x="94"/>
-        <item m="1" x="103"/>
-        <item m="1" x="141"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item m="1" x="67"/>
-        <item m="1" x="85"/>
-        <item m="1" x="115"/>
-        <item m="1" x="132"/>
-        <item m="1" x="52"/>
-        <item m="1" x="139"/>
-        <item m="1" x="145"/>
-        <item m="1" x="69"/>
-        <item m="1" x="79"/>
-        <item m="1" x="51"/>
-        <item m="1" x="127"/>
-        <item m="1" x="90"/>
-        <item m="1" x="117"/>
-        <item m="1" x="130"/>
-        <item m="1" x="137"/>
-        <item m="1" x="102"/>
-        <item m="1" x="74"/>
-        <item m="1" x="65"/>
-        <item m="1" x="60"/>
-        <item m="1" x="89"/>
-        <item m="1" x="76"/>
-        <item m="1" x="95"/>
-        <item m="1" x="116"/>
-        <item m="1" x="136"/>
-        <item m="1" x="80"/>
-        <item m="1" x="122"/>
-        <item m="1" x="110"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item m="1" x="128"/>
-        <item m="1" x="113"/>
-        <item m="1" x="120"/>
-        <item m="1" x="99"/>
-        <item m="1" x="112"/>
-        <item m="1" x="92"/>
-        <item m="1" x="107"/>
-        <item m="1" x="84"/>
-        <item m="1" x="98"/>
-        <item m="1" x="78"/>
-        <item m="1" x="91"/>
-        <item m="1" x="70"/>
-        <item m="1" x="83"/>
-        <item m="1" x="66"/>
-        <item m="1" x="105"/>
-        <item m="1" x="75"/>
-        <item m="1" x="135"/>
-        <item m="1" x="123"/>
-        <item m="1" x="48"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item m="1" x="64"/>
-        <item m="1" x="71"/>
-        <item m="1" x="62"/>
-        <item m="1" x="49"/>
-        <item m="1" x="131"/>
-        <item m="1" x="125"/>
-        <item m="1" x="114"/>
-        <item m="1" x="100"/>
-        <item m="1" x="63"/>
-        <item m="1" x="109"/>
-        <item m="1" x="140"/>
-        <item m="1" x="81"/>
-        <item m="1" x="126"/>
-        <item m="1" x="106"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item m="1" x="144"/>
-        <item m="1" x="57"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item m="1" x="55"/>
-        <item m="1" x="77"/>
-        <item m="1" x="73"/>
-        <item m="1" x="138"/>
-        <item m="1" x="50"/>
-        <item m="1" x="118"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item m="1" x="59"/>
-        <item m="1" x="101"/>
-        <item m="1" x="111"/>
-        <item m="1" x="82"/>
-        <item m="1" x="58"/>
-        <item m="1" x="88"/>
-        <item m="1" x="124"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item m="1" x="97"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="12">
-        <item m="1" x="11"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="10"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item x="0"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="3"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="3"/>
-    <field x="4"/>
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="16">
-    <i>
-      <x v="116"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="113"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="144"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="130"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="79"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="25"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="128"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="121"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="83"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="26"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="89"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="56"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="92"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="86"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="78"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="141"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Average" fld="6" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <formats count="24">
-    <format dxfId="120">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="119">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="118">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="117">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="116">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="115">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="16">
-            <x v="25"/>
-            <x v="26"/>
-            <x v="56"/>
-            <x v="78"/>
-            <x v="79"/>
-            <x v="83"/>
-            <x v="86"/>
-            <x v="89"/>
-            <x v="92"/>
-            <x v="113"/>
-            <x v="116"/>
-            <x v="121"/>
-            <x v="128"/>
-            <x v="130"/>
-            <x v="141"/>
-            <x v="144"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="114">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="1" selected="0">
-            <x v="116"/>
-          </reference>
-          <reference field="4" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="113">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="116"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="112">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="113"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="111">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="144"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="110">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="130"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="109">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="79"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="108">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="25"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="107">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="128"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="106">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="121"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="105">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="83"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="104">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="26"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="103">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="89"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="102">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="56"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="101">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="92"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="100">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="86"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="99">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="78"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="98">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="141"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="97">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="3" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters>
-            <customFilter operator="greaterThan" val="0"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C60B51EB-8837-4193-A6A8-17E5FAE31CEA}" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="K19:N35" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
-  <pivotFields count="25">
-    <pivotField name="Project Name" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0">
-      <items count="146">
-        <item m="1" x="57"/>
-        <item m="1" x="80"/>
-        <item m="1" x="52"/>
-        <item m="1" x="132"/>
-        <item m="1" x="115"/>
-        <item m="1" x="85"/>
-        <item m="1" x="141"/>
-        <item m="1" x="73"/>
-        <item m="1" x="77"/>
-        <item m="1" x="144"/>
-        <item m="1" x="110"/>
-        <item m="1" x="122"/>
-        <item m="1" x="127"/>
-        <item m="1" x="51"/>
-        <item m="1" x="79"/>
-        <item m="1" x="69"/>
-        <item m="1" x="145"/>
-        <item m="1" x="139"/>
-        <item m="1" x="67"/>
-        <item m="1" x="61"/>
-        <item m="1" x="133"/>
-        <item m="1" x="53"/>
-        <item m="1" x="86"/>
-        <item m="1" x="72"/>
-        <item m="1" x="97"/>
-        <item m="1" x="124"/>
-        <item m="1" x="88"/>
-        <item m="1" x="58"/>
-        <item m="1" x="82"/>
-        <item m="1" x="111"/>
-        <item m="1" x="101"/>
-        <item m="1" x="59"/>
-        <item m="1" x="118"/>
-        <item m="1" x="50"/>
-        <item m="1" x="138"/>
-        <item m="1" x="106"/>
-        <item m="1" x="126"/>
-        <item m="1" x="81"/>
-        <item m="1" x="140"/>
-        <item m="1" x="109"/>
-        <item m="1" x="63"/>
-        <item m="1" x="100"/>
-        <item m="1" x="114"/>
-        <item m="1" x="125"/>
-        <item m="1" x="131"/>
-        <item m="1" x="49"/>
-        <item m="1" x="62"/>
-        <item m="1" x="71"/>
-        <item m="1" x="64"/>
-        <item m="1" x="48"/>
-        <item m="1" x="123"/>
-        <item m="1" x="135"/>
-        <item m="1" x="75"/>
-        <item m="1" x="105"/>
-        <item m="1" x="66"/>
-        <item m="1" x="83"/>
-        <item m="1" x="70"/>
-        <item m="1" x="91"/>
-        <item m="1" x="78"/>
-        <item m="1" x="98"/>
-        <item m="1" x="84"/>
-        <item m="1" x="107"/>
-        <item m="1" x="92"/>
-        <item m="1" x="112"/>
-        <item m="1" x="99"/>
-        <item m="1" x="120"/>
-        <item m="1" x="113"/>
-        <item m="1" x="128"/>
-        <item m="1" x="136"/>
-        <item m="1" x="116"/>
-        <item m="1" x="95"/>
-        <item m="1" x="76"/>
-        <item m="1" x="89"/>
-        <item m="1" x="60"/>
-        <item m="1" x="65"/>
-        <item m="1" x="74"/>
-        <item m="1" x="102"/>
-        <item m="1" x="137"/>
-        <item m="1" x="130"/>
-        <item m="1" x="117"/>
-        <item m="1" x="90"/>
-        <item m="1" x="103"/>
-        <item m="1" x="94"/>
-        <item m="1" x="119"/>
-        <item m="1" x="104"/>
-        <item m="1" x="87"/>
-        <item m="1" x="93"/>
-        <item m="1" x="56"/>
-        <item m="1" x="96"/>
-        <item m="1" x="108"/>
-        <item m="1" x="121"/>
-        <item m="1" x="129"/>
-        <item m="1" x="134"/>
-        <item m="1" x="143"/>
-        <item m="1" x="54"/>
-        <item m="1" x="68"/>
-        <item m="1" x="142"/>
-        <item m="1" x="55"/>
-        <item m="1" x="47"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="12">
-        <item m="1" x="11"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="10"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item x="0"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="3"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="3"/>
-    <field x="4"/>
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="16">
-    <i>
-      <x v="112"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="115"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="106"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="135"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="99"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="143"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="108"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="109"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="136"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="131"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="102"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="139"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="142"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="128"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="122"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="125"/>
-      <x v="7"/>
-      <x v="1"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Average" fld="13" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <formats count="24">
-    <format dxfId="144">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="143">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="142">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="141">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="140">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="139">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="16">
-            <x v="99"/>
-            <x v="102"/>
-            <x v="106"/>
-            <x v="108"/>
-            <x v="109"/>
-            <x v="112"/>
-            <x v="115"/>
-            <x v="122"/>
-            <x v="125"/>
-            <x v="128"/>
-            <x v="131"/>
-            <x v="135"/>
-            <x v="136"/>
-            <x v="139"/>
-            <x v="142"/>
-            <x v="143"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="138">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="1" selected="0">
-            <x v="112"/>
-          </reference>
-          <reference field="4" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="137">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="112"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="136">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="115"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="135">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="106"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="134">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="135"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="133">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="99"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="132">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="143"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="131">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="108"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="130">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="109"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="129">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="136"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="128">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="131"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="127">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="102"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="126">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="139"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="125">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="142"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="124">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="128"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="123">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="122"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="122">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="125"/>
-          </reference>
-          <reference field="4" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="121">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="3" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters>
-            <customFilter operator="greaterThan" val="0"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -22296,7 +22296,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22324,7 +22324,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" s="15">
         <v>2305.9899999999998</v>
@@ -22338,7 +22338,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="15">
         <v>2234.65</v>
@@ -22352,7 +22352,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" s="15">
         <v>71.34</v>

--- a/arena.xlsx
+++ b/arena.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c258af6f82bae6e/Ortak/Belgeler/GitHub/emu-hacettepe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="733" documentId="8_{E874EB0A-1B3E-4D18-BA57-C28D5CAE2331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D843E2F2-AEAE-42C4-A4B7-A589AFE7FF63}"/>
+  <xr:revisionPtr revIDLastSave="735" documentId="8_{E874EB0A-1B3E-4D18-BA57-C28D5CAE2331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{081597F7-DB29-49B1-92DA-79F9936001C8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{B1CC244A-9413-4E16-9851-F17A9FD4386F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{B1CC244A-9413-4E16-9851-F17A9FD4386F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="1" r:id="rId9"/>
-    <pivotCache cacheId="2" r:id="rId10"/>
-    <pivotCache cacheId="3" r:id="rId11"/>
-    <pivotCache cacheId="4" r:id="rId12"/>
-    <pivotCache cacheId="5" r:id="rId13"/>
+    <pivotCache cacheId="186" r:id="rId8"/>
+    <pivotCache cacheId="187" r:id="rId9"/>
+    <pivotCache cacheId="188" r:id="rId10"/>
+    <pivotCache cacheId="189" r:id="rId11"/>
+    <pivotCache cacheId="190" r:id="rId12"/>
+    <pivotCache cacheId="191" r:id="rId13"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -14041,7 +14041,1100 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5D689A0A-5D80-4286-B837-064E3CA4F1B7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0853104-5868-4EEA-827D-C91C7FF3FA94}" name="PivotTable4" cacheId="187" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="F2:I17" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
+  <pivotFields count="25">
+    <pivotField name="Project Name" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="146">
+        <item m="1" x="57"/>
+        <item m="1" x="80"/>
+        <item m="1" x="52"/>
+        <item m="1" x="132"/>
+        <item m="1" x="115"/>
+        <item m="1" x="85"/>
+        <item m="1" x="141"/>
+        <item m="1" x="73"/>
+        <item m="1" x="77"/>
+        <item m="1" x="144"/>
+        <item m="1" x="110"/>
+        <item m="1" x="122"/>
+        <item m="1" x="127"/>
+        <item m="1" x="51"/>
+        <item m="1" x="79"/>
+        <item m="1" x="69"/>
+        <item m="1" x="145"/>
+        <item m="1" x="139"/>
+        <item m="1" x="67"/>
+        <item m="1" x="61"/>
+        <item m="1" x="133"/>
+        <item m="1" x="53"/>
+        <item m="1" x="86"/>
+        <item m="1" x="72"/>
+        <item m="1" x="97"/>
+        <item m="1" x="124"/>
+        <item m="1" x="88"/>
+        <item m="1" x="58"/>
+        <item m="1" x="82"/>
+        <item m="1" x="111"/>
+        <item m="1" x="101"/>
+        <item m="1" x="59"/>
+        <item m="1" x="118"/>
+        <item m="1" x="50"/>
+        <item m="1" x="138"/>
+        <item m="1" x="106"/>
+        <item m="1" x="126"/>
+        <item m="1" x="81"/>
+        <item m="1" x="140"/>
+        <item m="1" x="109"/>
+        <item m="1" x="63"/>
+        <item m="1" x="100"/>
+        <item m="1" x="114"/>
+        <item m="1" x="125"/>
+        <item m="1" x="131"/>
+        <item m="1" x="49"/>
+        <item m="1" x="62"/>
+        <item m="1" x="71"/>
+        <item m="1" x="64"/>
+        <item m="1" x="48"/>
+        <item m="1" x="123"/>
+        <item m="1" x="135"/>
+        <item m="1" x="75"/>
+        <item m="1" x="105"/>
+        <item m="1" x="66"/>
+        <item m="1" x="83"/>
+        <item m="1" x="70"/>
+        <item m="1" x="91"/>
+        <item m="1" x="78"/>
+        <item m="1" x="98"/>
+        <item m="1" x="84"/>
+        <item m="1" x="107"/>
+        <item m="1" x="92"/>
+        <item m="1" x="112"/>
+        <item m="1" x="99"/>
+        <item m="1" x="120"/>
+        <item m="1" x="113"/>
+        <item m="1" x="128"/>
+        <item m="1" x="136"/>
+        <item m="1" x="116"/>
+        <item m="1" x="95"/>
+        <item m="1" x="76"/>
+        <item m="1" x="89"/>
+        <item m="1" x="60"/>
+        <item m="1" x="65"/>
+        <item m="1" x="74"/>
+        <item m="1" x="102"/>
+        <item m="1" x="137"/>
+        <item m="1" x="130"/>
+        <item m="1" x="117"/>
+        <item m="1" x="90"/>
+        <item m="1" x="103"/>
+        <item m="1" x="94"/>
+        <item m="1" x="119"/>
+        <item m="1" x="104"/>
+        <item m="1" x="87"/>
+        <item m="1" x="93"/>
+        <item m="1" x="56"/>
+        <item m="1" x="96"/>
+        <item m="1" x="108"/>
+        <item m="1" x="121"/>
+        <item m="1" x="129"/>
+        <item m="1" x="134"/>
+        <item m="1" x="143"/>
+        <item m="1" x="54"/>
+        <item m="1" x="68"/>
+        <item m="1" x="142"/>
+        <item m="1" x="55"/>
+        <item m="1" x="47"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="12">
+        <item h="1" m="1" x="11"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" m="1" x="10"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item m="1" x="3"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="3"/>
+    <field x="4"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x v="100"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="104"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="107"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="110"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="113"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="116"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="118"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="120"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="123"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="126"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="129"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="133"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="137"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="140"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="144"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Average" fld="13" subtotal="max" baseField="5" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="23">
+    <format dxfId="48">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="45">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="15">
+            <x v="100"/>
+            <x v="104"/>
+            <x v="107"/>
+            <x v="110"/>
+            <x v="113"/>
+            <x v="116"/>
+            <x v="118"/>
+            <x v="120"/>
+            <x v="123"/>
+            <x v="126"/>
+            <x v="129"/>
+            <x v="133"/>
+            <x v="137"/>
+            <x v="140"/>
+            <x v="144"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="100"/>
+          </reference>
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="100"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="104"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="107"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="110"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="113"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="116"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="118"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="120"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="123"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="126"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="129"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="133"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="137"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="140"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="144"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DD882CE-92FD-4787-B40D-E4A49A047CA1}" name="PivotTable1" cacheId="186" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A2:D17" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
+  <pivotFields count="25">
+    <pivotField name="Project Name" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="146">
+        <item m="1" x="47"/>
+        <item m="1" x="142"/>
+        <item m="1" x="68"/>
+        <item m="1" x="54"/>
+        <item m="1" x="143"/>
+        <item m="1" x="134"/>
+        <item m="1" x="129"/>
+        <item m="1" x="121"/>
+        <item m="1" x="108"/>
+        <item m="1" x="72"/>
+        <item m="1" x="86"/>
+        <item m="1" x="96"/>
+        <item m="1" x="56"/>
+        <item m="1" x="93"/>
+        <item m="1" x="53"/>
+        <item m="1" x="87"/>
+        <item m="1" x="133"/>
+        <item m="1" x="61"/>
+        <item m="1" x="104"/>
+        <item m="1" x="119"/>
+        <item m="1" x="94"/>
+        <item m="1" x="103"/>
+        <item m="1" x="141"/>
+        <item x="46"/>
+        <item x="45"/>
+        <item x="44"/>
+        <item x="43"/>
+        <item m="1" x="67"/>
+        <item m="1" x="85"/>
+        <item m="1" x="115"/>
+        <item m="1" x="132"/>
+        <item m="1" x="52"/>
+        <item m="1" x="139"/>
+        <item m="1" x="145"/>
+        <item m="1" x="69"/>
+        <item m="1" x="79"/>
+        <item m="1" x="51"/>
+        <item m="1" x="127"/>
+        <item m="1" x="90"/>
+        <item m="1" x="117"/>
+        <item m="1" x="130"/>
+        <item m="1" x="137"/>
+        <item m="1" x="102"/>
+        <item m="1" x="74"/>
+        <item m="1" x="65"/>
+        <item m="1" x="60"/>
+        <item m="1" x="89"/>
+        <item m="1" x="76"/>
+        <item m="1" x="95"/>
+        <item m="1" x="116"/>
+        <item m="1" x="136"/>
+        <item m="1" x="80"/>
+        <item m="1" x="122"/>
+        <item m="1" x="110"/>
+        <item x="42"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item m="1" x="128"/>
+        <item m="1" x="113"/>
+        <item m="1" x="120"/>
+        <item m="1" x="99"/>
+        <item m="1" x="112"/>
+        <item m="1" x="92"/>
+        <item m="1" x="107"/>
+        <item m="1" x="84"/>
+        <item m="1" x="98"/>
+        <item m="1" x="78"/>
+        <item m="1" x="91"/>
+        <item m="1" x="70"/>
+        <item m="1" x="83"/>
+        <item m="1" x="66"/>
+        <item m="1" x="105"/>
+        <item m="1" x="75"/>
+        <item m="1" x="135"/>
+        <item m="1" x="123"/>
+        <item m="1" x="48"/>
+        <item x="39"/>
+        <item x="38"/>
+        <item x="37"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="34"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="30"/>
+        <item x="29"/>
+        <item x="28"/>
+        <item x="27"/>
+        <item x="26"/>
+        <item x="25"/>
+        <item x="24"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="21"/>
+        <item x="20"/>
+        <item x="19"/>
+        <item m="1" x="64"/>
+        <item m="1" x="71"/>
+        <item m="1" x="62"/>
+        <item m="1" x="49"/>
+        <item m="1" x="131"/>
+        <item m="1" x="125"/>
+        <item m="1" x="114"/>
+        <item m="1" x="100"/>
+        <item m="1" x="63"/>
+        <item m="1" x="109"/>
+        <item m="1" x="140"/>
+        <item m="1" x="81"/>
+        <item m="1" x="126"/>
+        <item m="1" x="106"/>
+        <item x="18"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="13"/>
+        <item m="1" x="144"/>
+        <item m="1" x="57"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item m="1" x="55"/>
+        <item m="1" x="77"/>
+        <item m="1" x="73"/>
+        <item m="1" x="138"/>
+        <item m="1" x="50"/>
+        <item m="1" x="118"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item m="1" x="59"/>
+        <item m="1" x="101"/>
+        <item m="1" x="111"/>
+        <item m="1" x="82"/>
+        <item m="1" x="58"/>
+        <item m="1" x="88"/>
+        <item m="1" x="124"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item m="1" x="97"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="12">
+        <item h="1" m="1" x="11"/>
+        <item h="1" x="4"/>
+        <item h="1" x="5"/>
+        <item h="1" x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="8"/>
+        <item h="1" x="9"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item h="1" m="1" x="10"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="4"/>
+        <item x="1"/>
+        <item h="1" m="1" x="3"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="3"/>
+    <field x="4"/>
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x v="143"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="81"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="94"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="112"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="129"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="139"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="77"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="55"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="120"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="91"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="85"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="96"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="115"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="88"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="24"/>
+      <x v="8"/>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Average" fld="6" baseField="0" baseItem="0" numFmtId="1"/>
+  </dataFields>
+  <formats count="23">
+    <format dxfId="71">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="70">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="69">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="68">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="15">
+            <x v="24"/>
+            <x v="55"/>
+            <x v="77"/>
+            <x v="81"/>
+            <x v="85"/>
+            <x v="88"/>
+            <x v="91"/>
+            <x v="94"/>
+            <x v="96"/>
+            <x v="112"/>
+            <x v="115"/>
+            <x v="120"/>
+            <x v="129"/>
+            <x v="139"/>
+            <x v="143"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="143"/>
+          </reference>
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="143"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="81"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="94"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="112"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="129"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="139"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="77"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="55"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="120"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="55">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="91"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="85"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="53">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="96"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="115"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="88"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="24"/>
+          </reference>
+          <reference field="4" count="0" selected="0"/>
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5D689A0A-5D80-4286-B837-064E3CA4F1B7}" name="PivotTable2" cacheId="186" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A19:D35" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="25">
     <pivotField name="Project Name" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
@@ -14352,22 +15445,22 @@
     <dataField name="Sum of Average" fld="6" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="24">
-    <format dxfId="49">
+    <format dxfId="95">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="94">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="93">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="92">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="91">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="90">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="16">
@@ -14391,7 +15484,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="89">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -14403,7 +15496,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="88">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14416,7 +15509,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14429,7 +15522,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14442,7 +15535,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14455,7 +15548,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14468,7 +15561,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14481,7 +15574,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14494,7 +15587,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="81">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14507,7 +15600,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14520,7 +15613,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14533,7 +15626,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="78">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14546,7 +15639,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14559,7 +15652,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="76">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14572,7 +15665,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14585,7 +15678,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14598,7 +15691,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -14611,7 +15704,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -14638,8 +15731,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C60B51EB-8837-4193-A6A8-17E5FAE31CEA}" name="PivotTable8" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C60B51EB-8837-4193-A6A8-17E5FAE31CEA}" name="PivotTable8" cacheId="188" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K19:N35" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="25">
     <pivotField name="Project Name" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
@@ -14950,22 +16043,22 @@
     <dataField name="Sum of Average" fld="13" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="24">
-    <format dxfId="73">
+    <format dxfId="119">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="118">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="117">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="116">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="115">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="16">
@@ -14989,7 +16082,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="113">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -15001,7 +16094,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15014,7 +16107,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15027,7 +16120,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="110">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15040,7 +16133,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15053,7 +16146,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="62">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15066,7 +16159,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="61">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15079,7 +16172,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="106">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15092,7 +16185,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="59">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15105,7 +16198,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="104">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15118,7 +16211,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15131,7 +16224,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15144,7 +16237,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="101">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15157,7 +16250,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="100">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15170,7 +16263,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="99">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15183,7 +16276,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="98">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15196,7 +16289,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="51">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15209,7 +16302,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -15236,8 +16329,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9997D82F-A922-4C66-A1A3-E93694B860A7}" name="PivotTable7" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9997D82F-A922-4C66-A1A3-E93694B860A7}" name="PivotTable7" cacheId="188" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="K2:N17" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="25">
     <pivotField name="Project Name" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
@@ -15534,7 +16627,7 @@
     <dataField name="Sum of Average" fld="13" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="74">
+    <format dxfId="120">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -15550,8 +16643,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F03BCD73-E33B-4965-A720-F840E653D0F4}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F03BCD73-E33B-4965-A720-F840E653D0F4}" name="PivotTable5" cacheId="187" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="F19:I35" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
   <pivotFields count="25">
     <pivotField name="Project Name" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
@@ -15862,22 +16955,22 @@
     <dataField name="Sum of Average" fld="6" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="24">
-    <format dxfId="98">
+    <format dxfId="144">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="143">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="142">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="141">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="140">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="139">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="3" count="16">
@@ -15901,7 +16994,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="92">
+    <format dxfId="138">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -15913,7 +17006,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="91">
+    <format dxfId="137">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15926,7 +17019,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="90">
+    <format dxfId="136">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15939,7 +17032,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="89">
+    <format dxfId="135">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15952,7 +17045,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15965,7 +17058,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="87">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15978,7 +17071,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -15991,7 +17084,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="85">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -16004,7 +17097,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="130">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -16017,7 +17110,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="83">
+    <format dxfId="129">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -16030,7 +17123,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="128">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -16043,7 +17136,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="127">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -16056,7 +17149,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="126">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -16069,7 +17162,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -16082,7 +17175,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -16095,7 +17188,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -16108,7 +17201,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="76">
+    <format dxfId="122">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -16121,7 +17214,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -16148,1101 +17241,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D0853104-5868-4EEA-827D-C91C7FF3FA94}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="F2:I17" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
-  <pivotFields count="25">
-    <pivotField name="Project Name" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="146">
-        <item m="1" x="57"/>
-        <item m="1" x="80"/>
-        <item m="1" x="52"/>
-        <item m="1" x="132"/>
-        <item m="1" x="115"/>
-        <item m="1" x="85"/>
-        <item m="1" x="141"/>
-        <item m="1" x="73"/>
-        <item m="1" x="77"/>
-        <item m="1" x="144"/>
-        <item m="1" x="110"/>
-        <item m="1" x="122"/>
-        <item m="1" x="127"/>
-        <item m="1" x="51"/>
-        <item m="1" x="79"/>
-        <item m="1" x="69"/>
-        <item m="1" x="145"/>
-        <item m="1" x="139"/>
-        <item m="1" x="67"/>
-        <item m="1" x="61"/>
-        <item m="1" x="133"/>
-        <item m="1" x="53"/>
-        <item m="1" x="86"/>
-        <item m="1" x="72"/>
-        <item m="1" x="97"/>
-        <item m="1" x="124"/>
-        <item m="1" x="88"/>
-        <item m="1" x="58"/>
-        <item m="1" x="82"/>
-        <item m="1" x="111"/>
-        <item m="1" x="101"/>
-        <item m="1" x="59"/>
-        <item m="1" x="118"/>
-        <item m="1" x="50"/>
-        <item m="1" x="138"/>
-        <item m="1" x="106"/>
-        <item m="1" x="126"/>
-        <item m="1" x="81"/>
-        <item m="1" x="140"/>
-        <item m="1" x="109"/>
-        <item m="1" x="63"/>
-        <item m="1" x="100"/>
-        <item m="1" x="114"/>
-        <item m="1" x="125"/>
-        <item m="1" x="131"/>
-        <item m="1" x="49"/>
-        <item m="1" x="62"/>
-        <item m="1" x="71"/>
-        <item m="1" x="64"/>
-        <item m="1" x="48"/>
-        <item m="1" x="123"/>
-        <item m="1" x="135"/>
-        <item m="1" x="75"/>
-        <item m="1" x="105"/>
-        <item m="1" x="66"/>
-        <item m="1" x="83"/>
-        <item m="1" x="70"/>
-        <item m="1" x="91"/>
-        <item m="1" x="78"/>
-        <item m="1" x="98"/>
-        <item m="1" x="84"/>
-        <item m="1" x="107"/>
-        <item m="1" x="92"/>
-        <item m="1" x="112"/>
-        <item m="1" x="99"/>
-        <item m="1" x="120"/>
-        <item m="1" x="113"/>
-        <item m="1" x="128"/>
-        <item m="1" x="136"/>
-        <item m="1" x="116"/>
-        <item m="1" x="95"/>
-        <item m="1" x="76"/>
-        <item m="1" x="89"/>
-        <item m="1" x="60"/>
-        <item m="1" x="65"/>
-        <item m="1" x="74"/>
-        <item m="1" x="102"/>
-        <item m="1" x="137"/>
-        <item m="1" x="130"/>
-        <item m="1" x="117"/>
-        <item m="1" x="90"/>
-        <item m="1" x="103"/>
-        <item m="1" x="94"/>
-        <item m="1" x="119"/>
-        <item m="1" x="104"/>
-        <item m="1" x="87"/>
-        <item m="1" x="93"/>
-        <item m="1" x="56"/>
-        <item m="1" x="96"/>
-        <item m="1" x="108"/>
-        <item m="1" x="121"/>
-        <item m="1" x="129"/>
-        <item m="1" x="134"/>
-        <item m="1" x="143"/>
-        <item m="1" x="54"/>
-        <item m="1" x="68"/>
-        <item m="1" x="142"/>
-        <item m="1" x="55"/>
-        <item m="1" x="47"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="12">
-        <item h="1" m="1" x="11"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" m="1" x="10"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item m="1" x="3"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="3"/>
-    <field x="4"/>
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x v="100"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="104"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="107"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="110"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="113"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="116"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="118"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="120"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="123"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="126"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="129"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="133"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="137"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="140"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="144"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Average" fld="13" subtotal="max" baseField="5" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <formats count="23">
-    <format dxfId="121">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="120">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="119">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="118">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="117">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="116">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="15">
-            <x v="100"/>
-            <x v="104"/>
-            <x v="107"/>
-            <x v="110"/>
-            <x v="113"/>
-            <x v="116"/>
-            <x v="118"/>
-            <x v="120"/>
-            <x v="123"/>
-            <x v="126"/>
-            <x v="129"/>
-            <x v="133"/>
-            <x v="137"/>
-            <x v="140"/>
-            <x v="144"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="115">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="1" selected="0">
-            <x v="100"/>
-          </reference>
-          <reference field="4" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="114">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="100"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="113">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="104"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="112">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="107"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="111">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="110"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="110">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="113"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="109">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="116"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="108">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="118"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="107">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="120"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="106">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="123"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="105">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="126"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="104">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="129"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="103">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="133"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="102">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="137"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="101">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="140"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="100">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="144"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="99">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2DD882CE-92FD-4787-B40D-E4A49A047CA1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" showDataTips="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A2:D17" firstHeaderRow="1" firstDataRow="1" firstDataCol="3"/>
-  <pivotFields count="25">
-    <pivotField name="Project Name" compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="146">
-        <item m="1" x="47"/>
-        <item m="1" x="142"/>
-        <item m="1" x="68"/>
-        <item m="1" x="54"/>
-        <item m="1" x="143"/>
-        <item m="1" x="134"/>
-        <item m="1" x="129"/>
-        <item m="1" x="121"/>
-        <item m="1" x="108"/>
-        <item m="1" x="72"/>
-        <item m="1" x="86"/>
-        <item m="1" x="96"/>
-        <item m="1" x="56"/>
-        <item m="1" x="93"/>
-        <item m="1" x="53"/>
-        <item m="1" x="87"/>
-        <item m="1" x="133"/>
-        <item m="1" x="61"/>
-        <item m="1" x="104"/>
-        <item m="1" x="119"/>
-        <item m="1" x="94"/>
-        <item m="1" x="103"/>
-        <item m="1" x="141"/>
-        <item x="46"/>
-        <item x="45"/>
-        <item x="44"/>
-        <item x="43"/>
-        <item m="1" x="67"/>
-        <item m="1" x="85"/>
-        <item m="1" x="115"/>
-        <item m="1" x="132"/>
-        <item m="1" x="52"/>
-        <item m="1" x="139"/>
-        <item m="1" x="145"/>
-        <item m="1" x="69"/>
-        <item m="1" x="79"/>
-        <item m="1" x="51"/>
-        <item m="1" x="127"/>
-        <item m="1" x="90"/>
-        <item m="1" x="117"/>
-        <item m="1" x="130"/>
-        <item m="1" x="137"/>
-        <item m="1" x="102"/>
-        <item m="1" x="74"/>
-        <item m="1" x="65"/>
-        <item m="1" x="60"/>
-        <item m="1" x="89"/>
-        <item m="1" x="76"/>
-        <item m="1" x="95"/>
-        <item m="1" x="116"/>
-        <item m="1" x="136"/>
-        <item m="1" x="80"/>
-        <item m="1" x="122"/>
-        <item m="1" x="110"/>
-        <item x="42"/>
-        <item x="41"/>
-        <item x="40"/>
-        <item m="1" x="128"/>
-        <item m="1" x="113"/>
-        <item m="1" x="120"/>
-        <item m="1" x="99"/>
-        <item m="1" x="112"/>
-        <item m="1" x="92"/>
-        <item m="1" x="107"/>
-        <item m="1" x="84"/>
-        <item m="1" x="98"/>
-        <item m="1" x="78"/>
-        <item m="1" x="91"/>
-        <item m="1" x="70"/>
-        <item m="1" x="83"/>
-        <item m="1" x="66"/>
-        <item m="1" x="105"/>
-        <item m="1" x="75"/>
-        <item m="1" x="135"/>
-        <item m="1" x="123"/>
-        <item m="1" x="48"/>
-        <item x="39"/>
-        <item x="38"/>
-        <item x="37"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="34"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item x="30"/>
-        <item x="29"/>
-        <item x="28"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="25"/>
-        <item x="24"/>
-        <item x="23"/>
-        <item x="22"/>
-        <item x="21"/>
-        <item x="20"/>
-        <item x="19"/>
-        <item m="1" x="64"/>
-        <item m="1" x="71"/>
-        <item m="1" x="62"/>
-        <item m="1" x="49"/>
-        <item m="1" x="131"/>
-        <item m="1" x="125"/>
-        <item m="1" x="114"/>
-        <item m="1" x="100"/>
-        <item m="1" x="63"/>
-        <item m="1" x="109"/>
-        <item m="1" x="140"/>
-        <item m="1" x="81"/>
-        <item m="1" x="126"/>
-        <item m="1" x="106"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="16"/>
-        <item x="15"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item m="1" x="144"/>
-        <item m="1" x="57"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item m="1" x="55"/>
-        <item m="1" x="77"/>
-        <item m="1" x="73"/>
-        <item m="1" x="138"/>
-        <item m="1" x="50"/>
-        <item m="1" x="118"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item m="1" x="59"/>
-        <item m="1" x="101"/>
-        <item m="1" x="111"/>
-        <item m="1" x="82"/>
-        <item m="1" x="58"/>
-        <item m="1" x="88"/>
-        <item m="1" x="124"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item m="1" x="97"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="12">
-        <item h="1" m="1" x="11"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" m="1" x="10"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item h="1" x="2"/>
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="4"/>
-        <item x="1"/>
-        <item h="1" m="1" x="3"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="3">
-    <field x="3"/>
-    <field x="4"/>
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x v="143"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="81"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="94"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="112"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="129"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="139"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="77"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="55"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="120"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="91"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="85"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="96"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="115"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="88"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="24"/>
-      <x v="8"/>
-      <x v="3"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Average" fld="6" baseField="0" baseItem="0" numFmtId="1"/>
-  </dataFields>
-  <formats count="23">
-    <format dxfId="144">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="143">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="142">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="141">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
-    </format>
-    <format dxfId="140">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="2"/>
-    </format>
-    <format dxfId="139">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="15">
-            <x v="24"/>
-            <x v="55"/>
-            <x v="77"/>
-            <x v="81"/>
-            <x v="85"/>
-            <x v="88"/>
-            <x v="91"/>
-            <x v="94"/>
-            <x v="96"/>
-            <x v="112"/>
-            <x v="115"/>
-            <x v="120"/>
-            <x v="129"/>
-            <x v="139"/>
-            <x v="143"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="138">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="1" selected="0">
-            <x v="143"/>
-          </reference>
-          <reference field="4" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="137">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="143"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="136">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="81"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="135">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="94"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="134">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="112"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="133">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="129"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="132">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="139"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="131">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="77"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="130">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="55"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="129">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="120"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="128">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="91"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="127">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="85"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="126">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="96"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="125">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="115"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="124">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="88"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="123">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="3">
-          <reference field="3" count="1" selected="0">
-            <x v="24"/>
-          </reference>
-          <reference field="4" count="0" selected="0"/>
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="122">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7DC7DD74-28E3-4BF7-9BC5-4349CB8EB837}" name="PivotTable13" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7DC7DD74-28E3-4BF7-9BC5-4349CB8EB837}" name="PivotTable13" cacheId="189" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
   <location ref="A1:E18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -17420,7 +17420,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D8AADB9-5D45-48C7-BD8A-5BD50D0412DE}" name="PivotTable15" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D8AADB9-5D45-48C7-BD8A-5BD50D0412DE}" name="PivotTable15" cacheId="190" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A1:E19" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -17617,7 +17617,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85F5082B-68C5-4D7B-9136-0263F68747F3}" name="PivotTable19" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{85F5082B-68C5-4D7B-9136-0263F68747F3}" name="PivotTable19" cacheId="191" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:E6" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -17747,6 +17747,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{641CA20E-DCB3-494B-9AD9-790AB3252E51}" name="Tablo1" displayName="Tablo1" ref="A1:D16" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A1:D16" xr:uid="{641CA20E-DCB3-494B-9AD9-790AB3252E51}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D16">
+    <sortCondition ref="A2:A16"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{858E8D8D-FE6C-4BC0-8DE2-4640AE4E067D}" name="places" totalsRowLabel="Toplam" dataDxfId="23" totalsRowDxfId="22"/>
     <tableColumn id="2" xr3:uid="{8615139B-3168-402A-B2DE-A90F6DA9E9D1}" name="0.10" dataDxfId="21" totalsRowDxfId="20"/>
@@ -17760,6 +17763,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{57A7DBBD-3FE7-4FB3-AFF2-7FA66F9ECBDC}" name="Tablo2" displayName="Tablo2" ref="A1:D17" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14">
   <autoFilter ref="A1:D17" xr:uid="{57A7DBBD-3FE7-4FB3-AFF2-7FA66F9ECBDC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D17">
+    <sortCondition ref="A2:A17"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A81E66B3-A753-4005-85BF-71D85D34AEE4}" name="places" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{BEC31D7A-09FE-4EAB-8539-73EF214C3A33}" name="0.10" dataDxfId="11"/>
@@ -21129,7 +21135,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C2" sqref="C2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21159,212 +21165,212 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B2" s="16">
-        <v>139.72999999999999</v>
+        <v>92.91</v>
       </c>
       <c r="C2" s="16">
-        <v>134.6</v>
+        <v>89.69</v>
       </c>
       <c r="D2" s="16">
-        <v>129.47</v>
+        <v>78.92</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B3" s="16">
-        <v>142.47</v>
+        <v>184.12</v>
       </c>
       <c r="C3" s="16">
-        <v>140.1</v>
+        <v>184.68</v>
       </c>
       <c r="D3" s="16">
-        <v>137.93</v>
+        <v>185.21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" s="16">
-        <v>139.19999999999999</v>
+        <v>120.45</v>
       </c>
       <c r="C4" s="16">
-        <v>141.13</v>
+        <v>122.17</v>
       </c>
       <c r="D4" s="16">
-        <v>142.38999999999999</v>
+        <v>124.07</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B5" s="16">
-        <v>38.97</v>
+        <v>68.03</v>
       </c>
       <c r="C5" s="16">
-        <v>37.799999999999997</v>
+        <v>68.459999999999994</v>
       </c>
       <c r="D5" s="16">
-        <v>36.93</v>
+        <v>68.97</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B6" s="16">
-        <v>126.97</v>
+        <v>105.26</v>
       </c>
       <c r="C6" s="16">
-        <v>124.37</v>
+        <v>109.62</v>
       </c>
       <c r="D6" s="16">
-        <v>110.83</v>
+        <v>113.98</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B7" s="16">
-        <v>160.53</v>
+        <v>284.39999999999998</v>
       </c>
       <c r="C7" s="16">
-        <v>158.34</v>
+        <v>289.72000000000003</v>
       </c>
       <c r="D7" s="16">
-        <v>156.1</v>
+        <v>295.02999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B8" s="16">
-        <v>168.88</v>
+        <v>38.97</v>
       </c>
       <c r="C8" s="16">
-        <v>177.32</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="D8" s="16">
-        <v>186.42</v>
+        <v>36.93</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B9" s="16">
-        <v>77.239999999999995</v>
+        <v>139.72999999999999</v>
       </c>
       <c r="C9" s="16">
-        <v>70.97</v>
+        <v>134.6</v>
       </c>
       <c r="D9" s="16">
-        <v>64.7</v>
+        <v>129.47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B10" s="16">
-        <v>456.83</v>
+        <v>168.88</v>
       </c>
       <c r="C10" s="16">
-        <v>474.99</v>
+        <v>177.32</v>
       </c>
       <c r="D10" s="16">
-        <v>493.16</v>
+        <v>186.42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B11" s="16">
-        <v>92.91</v>
+        <v>456.83</v>
       </c>
       <c r="C11" s="16">
-        <v>89.69</v>
+        <v>474.99</v>
       </c>
       <c r="D11" s="16">
-        <v>78.92</v>
+        <v>493.16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B12" s="16">
-        <v>184.12</v>
+        <v>139.19999999999999</v>
       </c>
       <c r="C12" s="16">
-        <v>184.68</v>
+        <v>141.13</v>
       </c>
       <c r="D12" s="16">
-        <v>185.21</v>
+        <v>142.38999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B13" s="16">
-        <v>120.45</v>
+        <v>126.97</v>
       </c>
       <c r="C13" s="16">
-        <v>122.17</v>
+        <v>124.37</v>
       </c>
       <c r="D13" s="16">
-        <v>124.07</v>
+        <v>110.83</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B14" s="16">
-        <v>68.03</v>
+        <v>77.239999999999995</v>
       </c>
       <c r="C14" s="16">
-        <v>68.459999999999994</v>
+        <v>70.97</v>
       </c>
       <c r="D14" s="16">
-        <v>68.97</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B15" s="16">
-        <v>105.26</v>
+        <v>160.53</v>
       </c>
       <c r="C15" s="16">
-        <v>109.62</v>
+        <v>158.34</v>
       </c>
       <c r="D15" s="16">
-        <v>113.98</v>
+        <v>156.1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B16" s="16">
-        <v>284.39999999999998</v>
+        <v>142.47</v>
       </c>
       <c r="C16" s="16">
-        <v>289.72000000000003</v>
+        <v>140.1</v>
       </c>
       <c r="D16" s="16">
-        <v>295.02999999999997</v>
+        <v>137.93</v>
       </c>
     </row>
   </sheetData>
@@ -21698,8 +21704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBE6247C-8938-42F3-9205-261FEA6BDC44}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21725,114 +21731,114 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B2" s="15">
-        <v>11.45</v>
+        <v>11.82</v>
       </c>
       <c r="C2" s="15">
-        <v>20.91</v>
+        <v>7.45</v>
       </c>
       <c r="D2" s="15">
-        <v>29.69</v>
+        <v>5.19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B3" s="15">
-        <v>8.85</v>
+        <v>16.46</v>
       </c>
       <c r="C3" s="15">
-        <v>15.56</v>
+        <v>11.39</v>
       </c>
       <c r="D3" s="15">
-        <v>21.36</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="15">
-        <v>12.39</v>
+        <v>11.69</v>
       </c>
       <c r="C4" s="15">
-        <v>14.79</v>
+        <v>5.35</v>
       </c>
       <c r="D4" s="15">
-        <v>17.170000000000002</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" s="15">
-        <v>96.29</v>
+        <v>29.72</v>
       </c>
       <c r="C5" s="15">
-        <v>92.4</v>
+        <v>28.1</v>
       </c>
       <c r="D5" s="15">
-        <v>88.63</v>
+        <v>28.35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B6" s="15">
-        <v>49.31</v>
+        <v>100.19</v>
       </c>
       <c r="C6" s="15">
-        <v>44.29</v>
+        <v>102.85</v>
       </c>
       <c r="D6" s="15">
-        <v>40.299999999999997</v>
+        <v>103.66</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="15">
-        <v>19.98</v>
+        <v>96.29</v>
       </c>
       <c r="C7" s="15">
-        <v>18.7</v>
+        <v>92.4</v>
       </c>
       <c r="D7" s="15">
-        <v>12.26</v>
+        <v>88.63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B8" s="15">
-        <v>114.92</v>
+        <v>19.98</v>
       </c>
       <c r="C8" s="15">
-        <v>120.19</v>
+        <v>18.7</v>
       </c>
       <c r="D8" s="15">
-        <v>125.71</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B9" s="15">
-        <v>71.34</v>
+        <v>11.45</v>
       </c>
       <c r="C9" s="15">
-        <v>69.510000000000005</v>
+        <v>20.91</v>
       </c>
       <c r="D9" s="15">
-        <v>67.680000000000007</v>
+        <v>29.69</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -21851,100 +21857,100 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B11" s="15">
-        <v>281.33999999999997</v>
+        <v>128.97</v>
       </c>
       <c r="C11" s="15">
-        <v>285.94</v>
+        <v>115.58</v>
       </c>
       <c r="D11" s="15">
-        <v>290.33999999999997</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B12" s="15">
-        <v>128.97</v>
+        <v>12.39</v>
       </c>
       <c r="C12" s="15">
-        <v>115.58</v>
+        <v>14.79</v>
       </c>
       <c r="D12" s="15">
-        <v>102</v>
+        <v>17.170000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B13" s="15">
-        <v>11.82</v>
+        <v>49.31</v>
       </c>
       <c r="C13" s="15">
-        <v>7.45</v>
+        <v>44.29</v>
       </c>
       <c r="D13" s="15">
-        <v>5.19</v>
+        <v>40.299999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B14" s="15">
-        <v>16.46</v>
+        <v>281.33999999999997</v>
       </c>
       <c r="C14" s="15">
-        <v>11.39</v>
+        <v>285.94</v>
       </c>
       <c r="D14" s="15">
-        <v>2.71</v>
+        <v>290.33999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B15" s="15">
-        <v>11.69</v>
+        <v>114.92</v>
       </c>
       <c r="C15" s="15">
-        <v>5.35</v>
+        <v>120.19</v>
       </c>
       <c r="D15" s="15">
-        <v>5.63</v>
+        <v>125.71</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B16" s="15">
-        <v>29.72</v>
+        <v>71.34</v>
       </c>
       <c r="C16" s="15">
-        <v>28.1</v>
+        <v>69.510000000000005</v>
       </c>
       <c r="D16" s="15">
-        <v>28.35</v>
+        <v>67.680000000000007</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B17" s="15">
-        <v>100.19</v>
+        <v>8.85</v>
       </c>
       <c r="C17" s="15">
-        <v>102.85</v>
+        <v>15.56</v>
       </c>
       <c r="D17" s="15">
-        <v>103.66</v>
+        <v>21.36</v>
       </c>
     </row>
   </sheetData>
@@ -22295,7 +22301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AE66AD-ADA0-4038-AB7E-A74176CBBFCF}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
